--- a/res/LLM_ouput/evalOutputFinal.xlsx
+++ b/res/LLM_ouput/evalOutputFinal.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Documents\NYU Files\Spring 2024 Notes\DSS\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2017B38A-A949-43BD-9A1A-834BE6235661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C48B77-0400-45E4-8A71-52F10A30E044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="1010" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mallet" sheetId="1" r:id="rId1"/>
@@ -18,29 +18,36 @@
     <sheet name="gensim (2)" sheetId="5" r:id="rId3"/>
     <sheet name="mallet (2)" sheetId="4" r:id="rId4"/>
     <sheet name="gen v mal num top" sheetId="6" r:id="rId5"/>
-    <sheet name="together" sheetId="3" r:id="rId6"/>
-    <sheet name="best case compare" sheetId="9" r:id="rId7"/>
-    <sheet name="best case" sheetId="8" r:id="rId8"/>
-    <sheet name="worst case compare" sheetId="11" r:id="rId9"/>
-    <sheet name="worst case" sheetId="10" r:id="rId10"/>
-    <sheet name="gen v mal num top (2)" sheetId="12" r:id="rId11"/>
-    <sheet name="best case compare (2)" sheetId="13" r:id="rId12"/>
-    <sheet name="worst case compare (2)" sheetId="14" r:id="rId13"/>
+    <sheet name="together (2)" sheetId="15" r:id="rId6"/>
+    <sheet name="best pure co" sheetId="16" r:id="rId7"/>
+    <sheet name="worst pure co" sheetId="17" r:id="rId8"/>
+    <sheet name="together" sheetId="3" r:id="rId9"/>
+    <sheet name="best case compare" sheetId="9" r:id="rId10"/>
+    <sheet name="best case" sheetId="8" r:id="rId11"/>
+    <sheet name="worst case compare" sheetId="11" r:id="rId12"/>
+    <sheet name="worst case" sheetId="10" r:id="rId13"/>
+    <sheet name="gen v mal num top (2)" sheetId="12" r:id="rId14"/>
+    <sheet name="best case compare (2)" sheetId="13" r:id="rId15"/>
+    <sheet name="worst case compare (2)" sheetId="14" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'best case'!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'best case'!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">together!$A$1:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'together (2)'!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId14"/>
-    <pivotCache cacheId="13" r:id="rId15"/>
-    <pivotCache cacheId="18" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="2" r:id="rId19"/>
+    <pivotCache cacheId="7" r:id="rId20"/>
+    <pivotCache cacheId="12" r:id="rId21"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="106">
   <si>
     <t>num_topics</t>
   </si>
@@ -356,6 +363,9 @@
   <si>
     <t>Column Labels</t>
   </si>
+  <si>
+    <t>Sum of scoreFromPkg</t>
+  </si>
 </sst>
 </file>
 
@@ -416,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -433,82 +443,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -539,27 +479,6 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -574,6 +493,908 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[evalOutputFinal.xlsx]together (2)!PivotTable4</c:name>
+    <c:fmtId val="8"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> LLM Evaluation Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'together (2)'!$H$4:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gensim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'together (2)'!$G$6:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'together (2)'!$H$6:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.27999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD1B-4244-8A1E-0466A5E67580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'together (2)'!$I$4:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mallet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'together (2)'!$G$6:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'together (2)'!$I$6:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD1B-4244-8A1E-0466A5E67580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="531856447"/>
+        <c:axId val="531855487"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="531856447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Topics</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531855487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="531855487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LLM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531856447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -656,6 +1477,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -712,6 +1536,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -836,6 +1663,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1310,6 +2178,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1852,7 +2760,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E1D117-A38F-45E7-B905-DAC9AB6DF013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2018,6 +3472,76 @@
     </cacheField>
     <cacheField name="NewScore" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.05" maxValue="0.3"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ayush Hate" refreshedDate="45424.900563541669" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{462BF167-9236-46DD-9D4C-0DEA9C5C0544}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D9" sheet="best pure co"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Index" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="20"/>
+    </cacheField>
+    <cacheField name="package" numFmtId="0">
+      <sharedItems count="2">
+        <s v="mallet"/>
+        <s v="gensim"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="num_topics" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="100" count="4">
+        <n v="10"/>
+        <n v="20"/>
+        <n v="50"/>
+        <n v="100"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="scoreFromPkg" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.58555985508516395" maxValue="0.66602849390105001"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ayush Hate" refreshedDate="45424.901207986113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{3A488C77-A5DB-4681-94CF-4E8C24481506}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D9" sheet="worst pure co"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Index" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="17"/>
+    </cacheField>
+    <cacheField name="package" numFmtId="0">
+      <sharedItems count="2">
+        <s v="gensim"/>
+        <s v="mallet"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="num_topics" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="100" count="4">
+        <n v="10"/>
+        <n v="20"/>
+        <n v="50"/>
+        <n v="100"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="scoreFromPkg" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.557929611482328" maxValue="0.63505577435248195"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2435,8 +3959,114 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.63816376224669502"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.64062684173789797"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.58555985508516395"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.64665187163463"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.64389618639328206"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.65717409183967102"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.620777280325846"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.66602849390105001"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.61514249326854797"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.61908158146876002"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.557929611482328"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.63247173961499203"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.61276251271013504"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.63505577435248195"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.610394731425566"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.634541021654068"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{659089E3-7252-461E-831C-41CC1BA8CB05}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{659089E3-7252-461E-831C-41CC1BA8CB05}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -2579,7 +4209,7 @@
     <dataField name="Average of NewScore" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2601,8 +4231,377 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D52C98F-C535-4C25-9006-1B633DBC27CA}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of scoreFromPkg" fld="3" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD3100FF-AD2E-4978-8E1E-0A72BA2302AD}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{357AA06E-1092-46FD-AE4B-2B583325B12C}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="G4:J10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of NewScore" fld="4" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6787E678-5825-4062-85FC-0225239D6A20}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of scoreFromPkg" fld="3" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB7CE29B-6608-4A80-B66F-6FA5A981A15C}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H5:K11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of scoreFromPkg" fld="3" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD3100FF-AD2E-4978-8E1E-0A72BA2302AD}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="H4:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2709,8 +4708,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75087394-73F5-411F-AAA5-F7BC8A92C79B}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75087394-73F5-411F-AAA5-F7BC8A92C79B}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2768,7 +4767,7 @@
     <dataField name="Average of NewScore" fld="4" subtotal="average" baseField="2" baseItem="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="39">
+    <format dxfId="8">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2784,8 +4783,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C948F05A-034B-466D-8BB1-BECBB2693B72}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C948F05A-034B-466D-8BB1-BECBB2693B72}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2843,7 +4842,7 @@
     <dataField name="Average of NewScore" fld="4" subtotal="average" baseField="2" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="37">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2859,8 +4858,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{875EB15B-804E-476F-9C0C-76FBB4C1E536}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{875EB15B-804E-476F-9C0C-76FBB4C1E536}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2918,7 +4917,7 @@
     <dataField name="Average of scoreFromPkg" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2934,8 +4933,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE230534-56DF-4D6E-9F7F-03DD30DCAA1A}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE230534-56DF-4D6E-9F7F-03DD30DCAA1A}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2993,90 +4992,15 @@
     <dataField name="Average of scoreFromPkg" fld="3" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="34">
+    <format dxfId="5">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D52C98F-C535-4C25-9006-1B633DBC27CA}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of scoreFromPkg" fld="3" subtotal="average" baseField="2" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="33">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -4203,12 +6127,376 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0BE329-7D10-47B7-AD3C-00DED0DB9146}">
+  <dimension ref="A3:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>0.34</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D568FD-243D-4CD5-8254-18565A211E1A}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.61514249326854797</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.63216776471504699</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.64539669514654996</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.58555985508516395</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.64097107293962596</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.62907849543462901</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.66602849390105001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.620777280325846</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E9" xr:uid="{86D568FD-243D-4CD5-8254-18565A211E1A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8A0B8-EE94-4530-B142-A7413AD26168}">
+  <dimension ref="A3:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>50</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>100</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93635DCD-EA86-426D-A4C0-7A540473B421}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -4370,7 +6658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E59D31-DC9A-44D7-88AF-0247108A180E}">
   <dimension ref="A3:C9"/>
   <sheetViews>
@@ -4414,10 +6702,10 @@
       <c r="A5" s="6">
         <v>10</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.63393449921399381</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.62814003649520023</v>
       </c>
     </row>
@@ -4425,10 +6713,10 @@
       <c r="A6" s="6">
         <v>20</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.5687232313870122</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.64299830919328205</v>
       </c>
     </row>
@@ -4436,10 +6724,10 @@
       <c r="A7" s="6">
         <v>50</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0.63072253477229301</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.63999973215375616</v>
       </c>
     </row>
@@ -4447,10 +6735,10 @@
       <c r="A8" s="6">
         <v>100</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.65134364070778339</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.61718497556603036</v>
       </c>
     </row>
@@ -4458,10 +6746,10 @@
       <c r="A9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.62118097652027049</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.63208076335206731</v>
       </c>
     </row>
@@ -4470,12 +6758,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAB3396-2187-4596-9EA2-8F864FFF78FF}">
   <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="B5:C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4510,10 +6798,10 @@
       <c r="A5" s="6">
         <v>10</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.61514249326854797</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.63216776471504699</v>
       </c>
     </row>
@@ -4521,10 +6809,10 @@
       <c r="A6" s="6">
         <v>20</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.58555985508516395</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.64539669514654996</v>
       </c>
     </row>
@@ -4532,10 +6820,10 @@
       <c r="A7" s="6">
         <v>50</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0.62907849543462901</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.64097107293962596</v>
       </c>
     </row>
@@ -4543,10 +6831,10 @@
       <c r="A8" s="6">
         <v>100</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.66602849390105001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.620777280325846</v>
       </c>
     </row>
@@ -4554,10 +6842,10 @@
       <c r="A9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.62395233442234777</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.63482820328176726</v>
       </c>
     </row>
@@ -4566,12 +6854,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC88179-D22C-4C6F-9717-15A574346BFA}">
   <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4606,10 +6894,10 @@
       <c r="A5" s="6">
         <v>10</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.63205805451453301</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.63816376224669502</v>
       </c>
     </row>
@@ -4617,10 +6905,10 @@
       <c r="A6" s="6">
         <v>20</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.557929611482328</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.64444411764392795</v>
       </c>
     </row>
@@ -4628,10 +6916,10 @@
       <c r="A7" s="6">
         <v>50</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0.61276251271013504</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.64389618639328206</v>
       </c>
     </row>
@@ -4639,10 +6927,10 @@
       <c r="A8" s="6">
         <v>100</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.634541021654068</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.610394731425566</v>
       </c>
     </row>
@@ -4650,10 +6938,10 @@
       <c r="A9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.60932280009026607</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.6342246994273677</v>
       </c>
     </row>
@@ -7172,10 +9460,10 @@
       <c r="A5" s="6">
         <v>10</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.27999999999999997</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.36</v>
       </c>
     </row>
@@ -7183,10 +9471,10 @@
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.5</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.2</v>
       </c>
     </row>
@@ -7194,10 +9482,10 @@
       <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0.1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.7</v>
       </c>
     </row>
@@ -7205,10 +9493,10 @@
       <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.1</v>
       </c>
     </row>
@@ -7216,10 +9504,10 @@
       <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.6</v>
       </c>
     </row>
@@ -7227,10 +9515,10 @@
       <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0.2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0.2</v>
       </c>
     </row>
@@ -7238,10 +9526,10 @@
       <c r="A11" s="6">
         <v>20</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>0.42000000000000004</v>
       </c>
     </row>
@@ -7249,10 +9537,10 @@
       <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>0.15</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>0.4</v>
       </c>
     </row>
@@ -7260,10 +9548,10 @@
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>0.35</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -7271,10 +9559,10 @@
       <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>0.15</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>0.3</v>
       </c>
     </row>
@@ -7282,10 +9570,10 @@
       <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>0.2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>0.4</v>
       </c>
     </row>
@@ -7293,10 +9581,10 @@
       <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -7304,10 +9592,10 @@
       <c r="A17" s="6">
         <v>50</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>0.312</v>
       </c>
     </row>
@@ -7315,10 +9603,10 @@
       <c r="A18" s="7">
         <v>11</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>0.1</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>0.22</v>
       </c>
     </row>
@@ -7326,10 +9614,10 @@
       <c r="A19" s="7">
         <v>12</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>0.16</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>0.44</v>
       </c>
     </row>
@@ -7337,10 +9625,10 @@
       <c r="A20" s="7">
         <v>13</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>0.2</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>0.34</v>
       </c>
     </row>
@@ -7348,10 +9636,10 @@
       <c r="A21" s="7">
         <v>14</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>0.16</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>0.18</v>
       </c>
     </row>
@@ -7359,10 +9647,10 @@
       <c r="A22" s="7">
         <v>15</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>0.2</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>0.38</v>
       </c>
     </row>
@@ -7370,10 +9658,10 @@
       <c r="A23" s="6">
         <v>100</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>0.152</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>0.254</v>
       </c>
     </row>
@@ -7381,10 +9669,10 @@
       <c r="A24" s="7">
         <v>16</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>0.05</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -7392,10 +9680,10 @@
       <c r="A25" s="7">
         <v>17</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>0.34</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>0.2</v>
       </c>
     </row>
@@ -7403,10 +9691,10 @@
       <c r="A26" s="7">
         <v>18</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>0.13</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>0.22</v>
       </c>
     </row>
@@ -7414,10 +9702,10 @@
       <c r="A27" s="7">
         <v>19</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>0.06</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>0.26</v>
       </c>
     </row>
@@ -7425,10 +9713,10 @@
       <c r="A28" s="7">
         <v>20</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>0.18</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>0.3</v>
       </c>
     </row>
@@ -7436,10 +9724,10 @@
       <c r="A29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>0.219</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>0.33649999999999991</v>
       </c>
     </row>
@@ -7449,11 +9737,1163 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98DE0C5-5FBD-49C7-8A92-C844A4FA2D42}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.557929611482328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.56186484379860202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.56329125617439701</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.57497059039456999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.58555985508516395</v>
+      </c>
+      <c r="G6" s="6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="I6">
+        <v>0.36</v>
+      </c>
+      <c r="J6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.610394731425566</v>
+      </c>
+      <c r="G7" s="6">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="J7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.61276251271013504</v>
+      </c>
+      <c r="G8" s="6">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.312</v>
+      </c>
+      <c r="J8">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.61514249326854797</v>
+      </c>
+      <c r="G9" s="6">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>0.152</v>
+      </c>
+      <c r="I9">
+        <v>0.254</v>
+      </c>
+      <c r="J9">
+        <v>0.20299999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.61689123153518499</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10">
+        <v>0.219</v>
+      </c>
+      <c r="I10">
+        <v>0.33649999999999991</v>
+      </c>
+      <c r="J10">
+        <v>0.27775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.61787806600283202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.61908158146876002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.61998356854072301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.620777280325846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.62267483987212102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.62459976802786998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.62668730601762901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.62907849543462901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.63192273400490895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.63205805451453301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.63216776471504699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.63247173961499203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.63351831765494304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.634541021654068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.63505577435248195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.63816376224669502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.63905351955102097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.64062684173789797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.64097107293962596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.64102210753236999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.64214884798614102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.64389618639328206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.64444411764392795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.64539669514654996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.64602712192630996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.64665187163463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.64832678889404705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.651840609437218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.65717409183967102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.66215923056044002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.66602849390105001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D41" xr:uid="{E98DE0C5-5FBD-49C7-8A92-C844A4FA2D42}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="gensim"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+      <sortCondition ref="D1:D41"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35462C69-8AB3-4D7F-A609-C15DA1E244D5}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.63816376224669502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.64062684173789797</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.58555985508516395</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.64665187163463</v>
+      </c>
+      <c r="H5" s="6">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.64062684173789797</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.63816376224669502</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1.2787906039845929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.64389618639328206</v>
+      </c>
+      <c r="H6" s="6">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.58555985508516395</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.64665187163463</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.2322117267197941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.65717409183967102</v>
+      </c>
+      <c r="H7" s="6">
+        <v>50</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.65717409183967102</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.64389618639328206</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.3010702782329531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.620777280325846</v>
+      </c>
+      <c r="H8" s="6">
+        <v>100</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.66602849390105001</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.620777280325846</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.2868057742268961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.66602849390105001</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2.5493892825637832</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2.5494891006004532</v>
+      </c>
+      <c r="K9" s="8">
+        <v>5.0988783831642364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDAE35B-D9D9-4879-8300-94C285A6CEB3}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.61514249326854797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.61908158146876002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.557929611482328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.63247173961499203</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.61276251271013504</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.63505577435248195</v>
+      </c>
+      <c r="H7" s="6">
+        <v>10</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.61514249326854797</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.61908158146876002</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.2342240747373081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.610394731425566</v>
+      </c>
+      <c r="H8" s="6">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.557929611482328</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.63247173961499203</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.1904013510973201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.634541021654068</v>
+      </c>
+      <c r="H9" s="6">
+        <v>50</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.61276251271013504</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.63505577435248195</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1.2478182870626169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H10" s="6">
+        <v>100</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.634541021654068</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.610394731425566</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.2449357530796341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2.420375639115079</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2.4970038268617998</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4.9173794659768788</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59809825-EB66-4D45-BFE5-A5C20EC230A5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7486,55 +10926,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3">
-        <v>0.61514249326854797</v>
+        <v>0.557929611482328</v>
       </c>
       <c r="E2" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3">
-        <v>0.63205805451453301</v>
+        <v>0.56186484379860202</v>
       </c>
       <c r="E3" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
-        <v>0.64062684173789797</v>
+        <v>0.56329125617439701</v>
       </c>
       <c r="E4" s="4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>103</v>
@@ -7543,21 +10983,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>0.63351831765494304</v>
+        <v>0.57497059039456999</v>
       </c>
       <c r="E5" s="4">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>100</v>
@@ -7572,222 +11012,222 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3">
-        <v>0.64832678889404705</v>
+        <v>0.58555985508516395</v>
       </c>
       <c r="E6" s="4">
-        <v>0.2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H6" s="6">
         <v>10</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6">
         <v>0.27999999999999997</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6">
         <v>0.36</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6">
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3">
-        <v>0.557929611482328</v>
+        <v>0.610394731425566</v>
       </c>
       <c r="E7" s="4">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H7" s="6">
         <v>20</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7">
         <v>0.42000000000000004</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7">
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3">
-        <v>0.57497059039456999</v>
+        <v>0.61276251271013504</v>
       </c>
       <c r="E8" s="4">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="6">
         <v>50</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8">
         <v>0.16400000000000001</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8">
         <v>0.312</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8">
         <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>0.56186484379860202</v>
+        <v>0.61514249326854797</v>
       </c>
       <c r="E9" s="4">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="6">
         <v>100</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9">
         <v>0.152</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9">
         <v>0.254</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9">
         <v>0.20299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3">
-        <v>0.56329125617439701</v>
+        <v>0.61689123153518499</v>
       </c>
       <c r="E10" s="4">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10">
         <v>0.219</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10">
         <v>0.33649999999999991</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10">
         <v>0.27775</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.61787806600283202</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11">
+      <c r="D12" s="3">
+        <v>0.61908158146876002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.61998356854072301</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>20</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.58555985508516395</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.61276251271013504</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.63192273400490895</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
       <c r="C14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3">
-        <v>0.62907849543462901</v>
+        <v>0.620777280325846</v>
       </c>
       <c r="E14" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -7796,185 +11236,185 @@
         <v>50</v>
       </c>
       <c r="D15" s="3">
-        <v>0.65717409183967102</v>
+        <v>0.62267483987212102</v>
       </c>
       <c r="E15" s="4">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
-        <v>0.62267483987212102</v>
+        <v>0.62459976802786998</v>
       </c>
       <c r="E16" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.62668730601762901</v>
+      </c>
+      <c r="E17" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.634541021654068</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3">
-        <v>0.66602849390105001</v>
+        <v>0.62907849543462901</v>
       </c>
       <c r="E18" s="4">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3">
-        <v>0.66215923056044002</v>
+        <v>0.63192273400490895</v>
       </c>
       <c r="E19" s="4">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
-        <v>0.651840609437218</v>
+        <v>0.63205805451453301</v>
       </c>
       <c r="E20" s="4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>0.64214884798614102</v>
+        <v>0.63216776471504699</v>
       </c>
       <c r="E21" s="4">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
-        <v>0.61908158146876002</v>
+        <v>0.63247173961499203</v>
       </c>
       <c r="E22" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23" s="3">
-        <v>0.63216776471504699</v>
+        <v>0.63351831765494304</v>
       </c>
       <c r="E23" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D24" s="3">
-        <v>0.63816376224669502</v>
+        <v>0.634541021654068</v>
       </c>
       <c r="E24" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3">
-        <v>0.62459976802786998</v>
+        <v>0.63505577435248195</v>
       </c>
       <c r="E25" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -7983,100 +11423,100 @@
         <v>10</v>
       </c>
       <c r="D26" s="3">
-        <v>0.62668730601762901</v>
+        <v>0.63816376224669502</v>
       </c>
       <c r="E26" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3">
-        <v>0.64665187163463</v>
+        <v>0.63905351955102097</v>
       </c>
       <c r="E27" s="4">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3">
-        <v>0.64539669514654996</v>
+        <v>0.64062684173789797</v>
       </c>
       <c r="E28" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3">
-        <v>0.64444411764392795</v>
+        <v>0.64097107293962596</v>
       </c>
       <c r="E29" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.64102210753236999</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>20</v>
       </c>
-      <c r="D30" s="3">
-        <v>0.63247173961499203</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>10</v>
-      </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D31" s="3">
-        <v>0.64602712192630996</v>
+        <v>0.64214884798614102</v>
       </c>
       <c r="E31" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -8085,163 +11525,163 @@
         <v>50</v>
       </c>
       <c r="D32" s="3">
-        <v>0.63905351955102097</v>
+        <v>0.64389618639328206</v>
       </c>
       <c r="E32" s="4">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D33" s="3">
-        <v>0.64097107293962596</v>
+        <v>0.64444411764392795</v>
       </c>
       <c r="E33" s="4">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D34" s="3">
-        <v>0.64102210753236999</v>
+        <v>0.64539669514654996</v>
       </c>
       <c r="E34" s="4">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D35" s="3">
-        <v>0.64389618639328206</v>
+        <v>0.64602712192630996</v>
       </c>
       <c r="E35" s="4">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D36" s="3">
-        <v>0.63505577435248195</v>
+        <v>0.64665187163463</v>
       </c>
       <c r="E36" s="4">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3">
-        <v>0.61787806600283202</v>
+        <v>0.64832678889404705</v>
       </c>
       <c r="E37" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>100</v>
       </c>
       <c r="D38" s="3">
-        <v>0.610394731425566</v>
+        <v>0.651840609437218</v>
       </c>
       <c r="E38" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.65717409183967102</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>18</v>
       </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.61998356854072301</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>19</v>
-      </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>100</v>
       </c>
       <c r="D40" s="3">
-        <v>0.61689123153518499</v>
+        <v>0.66215923056044002</v>
       </c>
       <c r="E40" s="4">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>100</v>
       </c>
       <c r="D41" s="3">
-        <v>0.620777280325846</v>
+        <v>0.66602849390105001</v>
       </c>
       <c r="E41" s="4">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -8249,373 +11689,23 @@
       <c r="D42" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E41" xr:uid="{59809825-EB66-4D45-BFE5-A5C20EC230A5}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="gensim"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+      <sortCondition ref="D1:D41"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0BE329-7D10-47B7-AD3C-00DED0DB9146}">
-  <dimension ref="A3:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>50</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>100</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0.39750000000000002</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.48499999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D568FD-243D-4CD5-8254-18565A211E1A}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.61514249326854797</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.63216776471504699</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.64539669514654996</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.58555985508516395</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.64097107293962596</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.62907849543462901</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.66602849390105001</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.620777280325846</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E9" xr:uid="{86D568FD-243D-4CD5-8254-18565A211E1A}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8A0B8-EE94-4530-B142-A7413AD26168}">
-  <dimension ref="A3:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>20</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>50</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>100</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="9">
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>